--- a/reference/Core6ResourcesTable20231118.xlsx
+++ b/reference/Core6ResourcesTable20231118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FBD91-F7F1-BF41-B4B6-33BE0788EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A11D40-C12E-F445-9A16-DA1FAD3E2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="900" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -11265,6 +11265,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11317,9 +11320,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11699,17 +11699,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -14366,17 +14366,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -16349,22 +16349,22 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="391"/>
-      <c r="B86" s="387" t="s">
+      <c r="A86" s="392"/>
+      <c r="B86" s="388" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="387"/>
-      <c r="D86" s="387"/>
-      <c r="E86" s="387" t="s">
+      <c r="C86" s="388"/>
+      <c r="D86" s="388"/>
+      <c r="E86" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="387" t="s">
+      <c r="F86" s="388" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="387" t="s">
+      <c r="G86" s="388" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="388" t="s">
+      <c r="H86" s="389" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -16372,27 +16372,27 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="391"/>
-      <c r="B87" s="387"/>
-      <c r="C87" s="387"/>
-      <c r="D87" s="387"/>
-      <c r="E87" s="387"/>
-      <c r="F87" s="387"/>
-      <c r="G87" s="387"/>
-      <c r="H87" s="389"/>
+      <c r="A87" s="392"/>
+      <c r="B87" s="388"/>
+      <c r="C87" s="388"/>
+      <c r="D87" s="388"/>
+      <c r="E87" s="388"/>
+      <c r="F87" s="388"/>
+      <c r="G87" s="388"/>
+      <c r="H87" s="390"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="391"/>
-      <c r="B88" s="387"/>
-      <c r="C88" s="387"/>
-      <c r="D88" s="387"/>
-      <c r="E88" s="387"/>
-      <c r="F88" s="387"/>
-      <c r="G88" s="387"/>
-      <c r="H88" s="390"/>
+      <c r="A88" s="392"/>
+      <c r="B88" s="388"/>
+      <c r="C88" s="388"/>
+      <c r="D88" s="388"/>
+      <c r="E88" s="388"/>
+      <c r="F88" s="388"/>
+      <c r="G88" s="388"/>
+      <c r="H88" s="391"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -16596,7 +16596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -16615,18 +16615,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="392"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="393"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -17616,7 +17616,7 @@
       <c r="G42" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="404" t="s">
+      <c r="H42" s="386" t="s">
         <v>912</v>
       </c>
       <c r="I42" s="37"/>
@@ -18765,17 +18765,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="267" t="s">
@@ -19595,11 +19595,11 @@
         <v>216</v>
       </c>
       <c r="F37" s="354"/>
-      <c r="G37" s="394" t="s">
+      <c r="G37" s="395" t="s">
         <v>643</v>
       </c>
-      <c r="H37" s="396"/>
-      <c r="I37" s="398"/>
+      <c r="H37" s="397"/>
+      <c r="I37" s="399"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="270" t="s">
@@ -19616,9 +19616,9 @@
       <c r="F38" s="271" t="s">
         <v>496</v>
       </c>
-      <c r="G38" s="395"/>
-      <c r="H38" s="397"/>
-      <c r="I38" s="399"/>
+      <c r="G38" s="396"/>
+      <c r="H38" s="398"/>
+      <c r="I38" s="400"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="270" t="s">
@@ -19637,9 +19637,9 @@
       <c r="F39" s="271" t="s">
         <v>553</v>
       </c>
-      <c r="G39" s="395"/>
-      <c r="H39" s="397"/>
-      <c r="I39" s="399"/>
+      <c r="G39" s="396"/>
+      <c r="H39" s="398"/>
+      <c r="I39" s="400"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="270" t="s">
@@ -19658,9 +19658,9 @@
       <c r="F40" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="395"/>
-      <c r="H40" s="397"/>
-      <c r="I40" s="399"/>
+      <c r="G40" s="396"/>
+      <c r="H40" s="398"/>
+      <c r="I40" s="400"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="270" t="s">
@@ -19679,9 +19679,9 @@
       <c r="F41" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="395"/>
-      <c r="H41" s="397"/>
-      <c r="I41" s="399"/>
+      <c r="G41" s="396"/>
+      <c r="H41" s="398"/>
+      <c r="I41" s="400"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
       <c r="A42" s="355" t="s">
@@ -19698,9 +19698,9 @@
       <c r="F42" s="356" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="395"/>
-      <c r="H42" s="397"/>
-      <c r="I42" s="399"/>
+      <c r="G42" s="396"/>
+      <c r="H42" s="398"/>
+      <c r="I42" s="400"/>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="358" t="s">
@@ -20977,17 +20977,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -22897,17 +22897,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="401" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24130,17 +24130,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="401" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24573,17 +24573,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="401" t="s">
+      <c r="A20" s="402" t="s">
         <v>901</v>
       </c>
-      <c r="B20" s="402"/>
-      <c r="C20" s="402"/>
-      <c r="D20" s="402"/>
-      <c r="E20" s="402"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="402"/>
-      <c r="H20" s="402"/>
-      <c r="I20" s="403"/>
+      <c r="B20" s="403"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="403"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="404"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="260" t="s">

--- a/reference/Core6ResourcesTable20231118.xlsx
+++ b/reference/Core6ResourcesTable20231118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A11D40-C12E-F445-9A16-DA1FAD3E2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA8FDE-069C-254D-94A9-A8EF1F694AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10106,7 +10106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -11320,6 +11320,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16596,8 +16599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17594,7 +17597,7 @@
       <c r="G41" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="116" t="s">
+      <c r="H41" s="405" t="s">
         <v>463</v>
       </c>
       <c r="I41" s="116"/>
@@ -17640,7 +17643,7 @@
       <c r="G43" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="370" t="s">
         <v>915</v>
       </c>
       <c r="I43" s="43" t="s">

--- a/reference/Core6ResourcesTable20231118.xlsx
+++ b/reference/Core6ResourcesTable20231118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA8FDE-069C-254D-94A9-A8EF1F694AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575592D-6943-D247-BA8B-06946F6550A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32480" yWindow="1320" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -8048,82 +8048,6 @@
     <phoneticPr fontId="26"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">以下に記載する[報告単位識別ID]　を設定する。
-[報告単位識別ID]： 次の３つの文字列を半角ハット記号（^）で連携した文字列。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【保険医療機関番号10桁】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：（内訳：都道府県番号２桁、点数表コード（医療機関区分）１桁、医療機関番号７桁）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【被保険者個人識別子】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：　６情報送信仕様に記載の「6:被保険者個人識別子の格納」の仕様に従う。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【報告単位のデータを医療機関のシステムとして医療機関内で一意に識別できる粒度のID文字列】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：当該システムが当該患者データの中で一意性を保証できるよう生成した半角文字列（英大文字、数字、ハイフン記号のみ可）。最大128文字とすること。"</t>
-    </r>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
     <t>"2021-02-01T13:28:17.239+09:00"</t>
     <phoneticPr fontId="26"/>
   </si>
@@ -8526,12 +8450,19 @@
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>以下に記載する[報告単位識別ID]　を設定する。
+[報告単位識別ID]： 次の３つの文字列を半角ハット記号（^）で連結した文字列。
+【保険医療機関番号10桁】：（内訳：都道府県番号２桁、点数表コード（医療機関区分）１桁、医療機関番号７桁）
+【被保険者個人識別子】：　６情報送信仕様に記載の「6:被保険者個人識別子の格納」の仕様に従う。
+【報告単位のデータを医療機関のシステムとして医療機関内で一意に識別できる粒度のID文字列】：当該システムが当該患者データの中で一意性を保証できるよう生成した半角文字列（英大文字、数字、ハイフン記号のみ可）。最大128文字とすること。"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8989,15 +8920,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -11268,6 +11190,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11320,9 +11245,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11702,17 +11624,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="388" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -14369,17 +14291,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="388" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -16352,22 +16274,22 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="392"/>
-      <c r="B86" s="388" t="s">
+      <c r="A86" s="393"/>
+      <c r="B86" s="389" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="388"/>
-      <c r="D86" s="388"/>
-      <c r="E86" s="388" t="s">
+      <c r="C86" s="389"/>
+      <c r="D86" s="389"/>
+      <c r="E86" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="388" t="s">
+      <c r="F86" s="389" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="388" t="s">
+      <c r="G86" s="389" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="389" t="s">
+      <c r="H86" s="390" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -16375,27 +16297,27 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="392"/>
-      <c r="B87" s="388"/>
-      <c r="C87" s="388"/>
-      <c r="D87" s="388"/>
-      <c r="E87" s="388"/>
-      <c r="F87" s="388"/>
-      <c r="G87" s="388"/>
-      <c r="H87" s="390"/>
+      <c r="A87" s="393"/>
+      <c r="B87" s="389"/>
+      <c r="C87" s="389"/>
+      <c r="D87" s="389"/>
+      <c r="E87" s="389"/>
+      <c r="F87" s="389"/>
+      <c r="G87" s="389"/>
+      <c r="H87" s="391"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="392"/>
-      <c r="B88" s="388"/>
-      <c r="C88" s="388"/>
-      <c r="D88" s="388"/>
-      <c r="E88" s="388"/>
-      <c r="F88" s="388"/>
-      <c r="G88" s="388"/>
-      <c r="H88" s="391"/>
+      <c r="A88" s="393"/>
+      <c r="B88" s="389"/>
+      <c r="C88" s="389"/>
+      <c r="D88" s="389"/>
+      <c r="E88" s="389"/>
+      <c r="F88" s="389"/>
+      <c r="G88" s="389"/>
+      <c r="H88" s="392"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -16599,7 +16521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -16618,18 +16540,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="388" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="393"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="394"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -17597,7 +17519,7 @@
       <c r="G41" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="405" t="s">
+      <c r="H41" s="387" t="s">
         <v>463</v>
       </c>
       <c r="I41" s="116"/>
@@ -17620,7 +17542,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="386" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="159"/>
@@ -17644,7 +17566,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="370" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>17</v>
@@ -17672,7 +17594,7 @@
         <v>29</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>17</v>
@@ -17700,7 +17622,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="137" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I45" s="133" t="s">
         <v>17</v>
@@ -18768,17 +18690,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="395" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="267" t="s">
@@ -19598,11 +19520,11 @@
         <v>216</v>
       </c>
       <c r="F37" s="354"/>
-      <c r="G37" s="395" t="s">
+      <c r="G37" s="396" t="s">
         <v>643</v>
       </c>
-      <c r="H37" s="397"/>
-      <c r="I37" s="399"/>
+      <c r="H37" s="398"/>
+      <c r="I37" s="400"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="270" t="s">
@@ -19619,9 +19541,9 @@
       <c r="F38" s="271" t="s">
         <v>496</v>
       </c>
-      <c r="G38" s="396"/>
-      <c r="H38" s="398"/>
-      <c r="I38" s="400"/>
+      <c r="G38" s="397"/>
+      <c r="H38" s="399"/>
+      <c r="I38" s="401"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="270" t="s">
@@ -19640,9 +19562,9 @@
       <c r="F39" s="271" t="s">
         <v>553</v>
       </c>
-      <c r="G39" s="396"/>
-      <c r="H39" s="398"/>
-      <c r="I39" s="400"/>
+      <c r="G39" s="397"/>
+      <c r="H39" s="399"/>
+      <c r="I39" s="401"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="270" t="s">
@@ -19661,9 +19583,9 @@
       <c r="F40" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="396"/>
-      <c r="H40" s="398"/>
-      <c r="I40" s="400"/>
+      <c r="G40" s="397"/>
+      <c r="H40" s="399"/>
+      <c r="I40" s="401"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="270" t="s">
@@ -19682,9 +19604,9 @@
       <c r="F41" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="396"/>
-      <c r="H41" s="398"/>
-      <c r="I41" s="400"/>
+      <c r="G41" s="397"/>
+      <c r="H41" s="399"/>
+      <c r="I41" s="401"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
       <c r="A42" s="355" t="s">
@@ -19701,9 +19623,9 @@
       <c r="F42" s="356" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="396"/>
-      <c r="H42" s="398"/>
-      <c r="I42" s="400"/>
+      <c r="G42" s="397"/>
+      <c r="H42" s="399"/>
+      <c r="I42" s="401"/>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="358" t="s">
@@ -20980,17 +20902,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="388" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -22900,17 +22822,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="402" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24116,8 +24038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA92E4C-6FC3-1D48-B01E-54D12D9CB0C9}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24133,17 +24055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="402" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24355,7 +24277,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="254"/>
@@ -24401,7 +24323,7 @@
         <v>442</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>669</v>
@@ -24447,18 +24369,18 @@
         <v>691</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I14" s="254" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="260" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -24467,20 +24389,20 @@
         <v>216</v>
       </c>
       <c r="F15" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>891</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>892</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:9" ht="56" customHeight="1">
       <c r="A16" s="260" t="s">
+        <v>892</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>893</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>894</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -24491,21 +24413,21 @@
         <v>553</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I16" s="254" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="225">
       <c r="A17" s="260" t="s">
+        <v>896</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>897</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>898</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -24513,24 +24435,24 @@
         <v>225</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I17" s="254" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="260" t="s">
+        <v>892</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>893</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>894</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -24541,21 +24463,21 @@
         <v>553</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H18" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I18" s="254" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="225">
       <c r="A19" s="260" t="s">
+        <v>896</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>897</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>898</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -24563,37 +24485,37 @@
         <v>232</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I19" s="254" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="402" t="s">
-        <v>901</v>
-      </c>
-      <c r="B20" s="403"/>
-      <c r="C20" s="403"/>
-      <c r="D20" s="403"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
-      <c r="G20" s="403"/>
-      <c r="H20" s="403"/>
-      <c r="I20" s="404"/>
+      <c r="A20" s="403" t="s">
+        <v>900</v>
+      </c>
+      <c r="B20" s="404"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="404"/>
+      <c r="E20" s="404"/>
+      <c r="F20" s="404"/>
+      <c r="G20" s="404"/>
+      <c r="H20" s="404"/>
+      <c r="I20" s="405"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="260" t="s">
+        <v>892</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>893</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>894</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -24604,21 +24526,21 @@
         <v>553</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I21" s="254" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="226" thickBot="1">
       <c r="A22" s="380" t="s">
+        <v>896</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>897</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>898</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -24626,16 +24548,16 @@
         <v>232</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>257</v>
       </c>
       <c r="I22" s="264" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable20231118.xlsx
+++ b/reference/Core6ResourcesTable20231118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575592D-6943-D247-BA8B-06946F6550A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0749A3-65AA-CC4B-97EC-28F5D3E4C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32480" yWindow="1320" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="917">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -8456,6 +8456,16 @@
 【保険医療機関番号10桁】：（内訳：都道府県番号２桁、点数表コード（医療機関区分）１桁、医療機関番号７桁）
 【被保険者個人識別子】：　６情報送信仕様に記載の「6:被保険者個人識別子の格納」の仕様に従う。
 【報告単位のデータを医療機関のシステムとして医療機関内で一意に識別できる粒度のID文字列】：当該システムが当該患者データの中で一意性を保証できるよう生成した半角文字列（英大文字、数字、ハイフン記号のみ可）。最大128文字とすること。"</t>
+  </si>
+  <si>
+    <t>このリソース情報の一意識別ID。
+少なくともひとつのidentifierは以下に記載の一意識別IDの仕様に従う値を設定すること。
+一意識別IDは、このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるIDを想定しているが、１回の登録で発生する複数の検査結果情報が同一IDを持っていてもよい。
+このID情報をキーとして、このIDが同一である本リソース情報ひとつまたは複数に対して、一括して更新・削除が実施されることがある。1回の登録で複数のリソース情報が登録される場合に、それらは同一のIDでも構わない。この場合、更新や削除は同一IDの情報すべてに対して実施される。</t>
+    <rPh sb="141" eb="145">
+      <t xml:space="preserve">ケンサケッカ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
   </si>
 </sst>
 </file>
@@ -12815,7 +12825,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="195">
+    <row r="52" spans="1:9" ht="210">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -15536,7 +15546,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="195">
+    <row r="54" spans="1:18" ht="210">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -17681,7 +17691,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="195">
+    <row r="48" spans="1:10" customFormat="1" ht="210">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -18672,8 +18682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F072C65F-1439-C74F-A77A-07DDE1C12202}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19297,7 +19307,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="278" t="s">
-        <v>721</v>
+        <v>916</v>
       </c>
       <c r="H27" s="336"/>
       <c r="I27" s="337"/>
@@ -19650,7 +19660,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="195">
+    <row r="44" spans="1:9" ht="210">
       <c r="A44" s="276"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -24038,7 +24048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA92E4C-6FC3-1D48-B01E-54D12D9CB0C9}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="162" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/reference/Core6ResourcesTable20231118.xlsx
+++ b/reference/Core6ResourcesTable20231118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0749A3-65AA-CC4B-97EC-28F5D3E4C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F67E4-9ECC-6F4C-A113-02991FC49FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -6714,24 +6714,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
-    </r>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">潜在的な臨床的危険性、致命度。記述する場合は、コード表："http://hl7.org/fhir/allergy-intolerance-criticality"からlow|high|unable-to-assessのいずれかを選択する。（低、高、評価不能）。
 </t>
     </r>
@@ -8465,6 +8447,24 @@
     <rPh sb="141" eb="145">
       <t xml:space="preserve">ケンサケッカ </t>
     </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報は薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
+    </r>
     <phoneticPr fontId="26"/>
   </si>
 </sst>
@@ -11618,8 +11618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11758,13 +11758,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>719</v>
       </c>
       <c r="I6" s="227" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -12317,7 +12317,7 @@
         <v>47</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="227"/>
@@ -12459,7 +12459,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="227"/>
@@ -12624,7 +12624,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>729</v>
+        <v>916</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
@@ -12647,7 +12647,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -12816,13 +12816,13 @@
         <v>473</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="227" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="210">
@@ -12833,13 +12833,13 @@
       <c r="E52" s="248"/>
       <c r="F52" s="6"/>
       <c r="G52" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="227" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90">
@@ -12873,7 +12873,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
@@ -13850,7 +13850,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="227" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
@@ -14083,7 +14083,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="227" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -14425,13 +14425,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>719</v>
       </c>
       <c r="I6" s="227" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -14527,7 +14527,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
@@ -15038,7 +15038,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -15412,13 +15412,13 @@
         <v>25</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -15491,7 +15491,7 @@
         <v>43</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -15537,13 +15537,13 @@
         <v>473</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="210">
@@ -15554,13 +15554,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="227" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="90">
@@ -15617,7 +15617,7 @@
         <v>81</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="9"/>
@@ -16169,7 +16169,7 @@
         <v>81</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9"/>
@@ -16303,7 +16303,7 @@
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -16680,13 +16680,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>719</v>
       </c>
       <c r="J6" s="227" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="135" customFormat="1">
@@ -17208,7 +17208,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="154"/>
@@ -17552,7 +17552,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="386" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="159"/>
@@ -17576,7 +17576,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="370" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>17</v>
@@ -17604,7 +17604,7 @@
         <v>29</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>17</v>
@@ -17632,7 +17632,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="137" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I45" s="133" t="s">
         <v>17</v>
@@ -17682,13 +17682,13 @@
         <v>473</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="210">
@@ -17700,13 +17700,13 @@
       <c r="F48" s="14"/>
       <c r="G48" s="6"/>
       <c r="H48" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="227" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="90">
@@ -18682,7 +18682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F072C65F-1439-C74F-A77A-07DDE1C12202}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="200" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -18818,13 +18818,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="278" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>719</v>
       </c>
       <c r="I6" s="279" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -18872,7 +18872,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="275" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -18935,7 +18935,7 @@
         <v>600</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="291"/>
@@ -19307,7 +19307,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="278" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H27" s="336"/>
       <c r="I27" s="337"/>
@@ -19651,13 +19651,13 @@
         <v>473</v>
       </c>
       <c r="G43" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H43" s="116" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="360" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="210">
@@ -19668,13 +19668,13 @@
       <c r="E44" s="38"/>
       <c r="F44" s="37"/>
       <c r="G44" s="278" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="279" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
@@ -20524,7 +20524,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="G86" s="37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>17</v>
@@ -20547,13 +20547,13 @@
         <v>442</v>
       </c>
       <c r="G87" s="37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="374" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -20570,13 +20570,13 @@
         <v>442</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="375" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30">
@@ -22887,13 +22887,13 @@
         <v>442</v>
       </c>
       <c r="G3" s="253" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H3" s="215" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="254" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22956,18 +22956,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="257" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H6" s="215" t="s">
         <v>719</v>
       </c>
       <c r="I6" s="258" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="260" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -22979,14 +22979,14 @@
         <v>39</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="254"/>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="260" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>24</v>
@@ -22998,18 +22998,18 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I8" s="254" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="260" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>42</v>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>669</v>
@@ -23044,18 +23044,18 @@
         <v>29</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I10" s="254" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="260" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -23067,14 +23067,14 @@
         <v>22</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="254"/>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12" s="260" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
@@ -23088,18 +23088,18 @@
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I12" s="254" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="A13" s="260" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>29</v>
@@ -23113,18 +23113,18 @@
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I13" s="254" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="260" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>141</v>
@@ -23142,12 +23142,12 @@
         <v>257</v>
       </c>
       <c r="I14" s="254" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="A15" s="260" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -23157,17 +23157,17 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:9" ht="34" customHeight="1">
       <c r="A16" s="260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -23178,17 +23178,17 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="254"/>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>24</v>
@@ -23201,21 +23201,21 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I17" s="254" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>29</v>
@@ -23226,19 +23226,19 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="254" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26" customHeight="1">
       <c r="A19" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>141</v>
@@ -23251,15 +23251,15 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="254" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -23268,17 +23268,17 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="254"/>
     </row>
     <row r="21" spans="1:9" ht="45">
       <c r="A21" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>100</v>
@@ -23291,7 +23291,7 @@
         <v>83</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="254" t="s">
@@ -23300,10 +23300,10 @@
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>102</v>
@@ -23316,16 +23316,16 @@
         <v>83</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="254" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="260" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -23334,17 +23334,17 @@
         <v>46</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="254"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="260" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>100</v>
@@ -23358,16 +23358,16 @@
         <v>83</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="254" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="260" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>102</v>
@@ -23381,16 +23381,16 @@
         <v>83</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="254" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="260" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -23402,14 +23402,14 @@
         <v>358</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="254"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="260" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>42</v>
@@ -23423,7 +23423,7 @@
         <v>88</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="254">
@@ -23432,7 +23432,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="260" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>93</v>
@@ -23446,16 +23446,16 @@
         <v>43</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="254" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
       <c r="A29" s="260" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>24</v>
@@ -23469,7 +23469,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="254" t="s">
@@ -23478,7 +23478,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="260" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>29</v>
@@ -23492,7 +23492,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="254" t="s">
@@ -23501,7 +23501,7 @@
     </row>
     <row r="31" spans="1:9" ht="135">
       <c r="A31" s="260" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -23513,18 +23513,18 @@
         <v>47</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>669</v>
       </c>
       <c r="I31" s="263" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="260" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -23534,17 +23534,17 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="254"/>
     </row>
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="260" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -23552,20 +23552,20 @@
         <v>10</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>781</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>782</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="254"/>
     </row>
     <row r="34" spans="1:9" ht="90">
       <c r="A34" s="260" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -23576,17 +23576,17 @@
         <v>47</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="254"/>
     </row>
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="260" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>834</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>409</v>
@@ -23597,17 +23597,17 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="254"/>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="260" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>410</v>
@@ -23620,19 +23620,19 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="254" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45">
       <c r="A37" s="260" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>411</v>
@@ -23645,19 +23645,19 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="254" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="260" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>411</v>
@@ -23670,19 +23670,19 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="254" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30">
       <c r="A39" s="260" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -23690,10 +23690,10 @@
         <v>46</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="254">
@@ -23702,7 +23702,7 @@
     </row>
     <row r="40" spans="1:9" ht="30">
       <c r="A40" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -23714,17 +23714,17 @@
         <v>136</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="254"/>
     </row>
     <row r="41" spans="1:9" ht="60">
       <c r="A41" s="260" t="s">
+        <v>788</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>789</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>790</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -23732,20 +23732,20 @@
         <v>46</v>
       </c>
       <c r="F41" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>791</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>792</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="254"/>
     </row>
     <row r="42" spans="1:9" ht="135">
       <c r="A42" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -23756,21 +23756,21 @@
         <v>47</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>684</v>
       </c>
       <c r="I42" s="263" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -23781,17 +23781,17 @@
         <v>47</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="254"/>
     </row>
     <row r="44" spans="1:9" ht="30">
       <c r="A44" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -23802,17 +23802,17 @@
         <v>47</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="254"/>
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -23823,17 +23823,17 @@
         <v>47</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="254"/>
     </row>
     <row r="46" spans="1:9" ht="60">
       <c r="A46" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -23841,20 +23841,20 @@
         <v>46</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="254"/>
     </row>
     <row r="47" spans="1:9" ht="135">
       <c r="A47" s="260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -23865,16 +23865,16 @@
         <v>47</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="263" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30">
       <c r="A48" s="260" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -23886,17 +23886,17 @@
         <v>136</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="254"/>
     </row>
     <row r="49" spans="1:9" ht="30">
       <c r="A49" s="260" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -23904,17 +23904,17 @@
         <v>46</v>
       </c>
       <c r="F49" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>801</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>802</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="254"/>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>266</v>
@@ -23928,21 +23928,21 @@
         <v>29</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>669</v>
       </c>
       <c r="I50" s="254" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="90">
       <c r="A51" s="260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -23953,21 +23953,21 @@
         <v>47</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>818</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>819</v>
-      </c>
       <c r="I51" s="254" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -23978,17 +23978,17 @@
         <v>356</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="254"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>100</v>
@@ -24001,17 +24001,17 @@
         <v>83</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="254"/>
     </row>
     <row r="54" spans="1:9" ht="16" thickBot="1">
       <c r="A54" s="260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>102</v>
@@ -24024,7 +24024,7 @@
         <v>83</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="264"/>
@@ -24120,13 +24120,13 @@
         <v>442</v>
       </c>
       <c r="G3" s="253" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H3" s="215" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="254" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24189,13 +24189,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="257" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H6" s="215" t="s">
         <v>719</v>
       </c>
       <c r="I6" s="189" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="45">
@@ -24214,7 +24214,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="227"/>
@@ -24237,13 +24237,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="217" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="120">
@@ -24264,18 +24264,18 @@
         <v>29</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>669</v>
       </c>
       <c r="I9" s="227" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="131" customHeight="1">
       <c r="A10" s="260" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -24287,14 +24287,14 @@
         <v>39</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="254"/>
     </row>
     <row r="11" spans="1:9" ht="42">
       <c r="A11" s="260" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>24</v>
@@ -24308,18 +24308,18 @@
         <v>553</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I11" s="382" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="211" customHeight="1">
       <c r="A12" s="260" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>42</v>
@@ -24333,7 +24333,7 @@
         <v>442</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>669</v>
@@ -24356,18 +24356,18 @@
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>719</v>
       </c>
       <c r="I13" s="254" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="62" customHeight="1">
       <c r="A14" s="260" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -24379,18 +24379,18 @@
         <v>691</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I14" s="254" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="260" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -24399,20 +24399,20 @@
         <v>216</v>
       </c>
       <c r="F15" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>890</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>891</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:9" ht="56" customHeight="1">
       <c r="A16" s="260" t="s">
+        <v>891</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -24423,21 +24423,21 @@
         <v>553</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I16" s="254" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="225">
       <c r="A17" s="260" t="s">
+        <v>895</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>896</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>897</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -24445,24 +24445,24 @@
         <v>225</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I17" s="254" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="260" t="s">
+        <v>891</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -24473,21 +24473,21 @@
         <v>553</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H18" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I18" s="254" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="225">
       <c r="A19" s="260" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>896</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>897</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -24495,21 +24495,21 @@
         <v>232</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I19" s="254" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
       <c r="A20" s="403" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B20" s="404"/>
       <c r="C20" s="404"/>
@@ -24522,10 +24522,10 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="260" t="s">
+        <v>891</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -24536,21 +24536,21 @@
         <v>553</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I21" s="254" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="226" thickBot="1">
       <c r="A22" s="380" t="s">
+        <v>895</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>896</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>897</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -24558,16 +24558,16 @@
         <v>232</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>257</v>
       </c>
       <c r="I22" s="264" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
